--- a/level 3/codeforces - phase 3-2.xlsx
+++ b/level 3/codeforces - phase 3-2.xlsx
@@ -4,10 +4,10 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="7860" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="8820" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
-    <sheet name="problem solving level 3.2" sheetId="1" r:id="rId1"/>
+    <sheet name="codeforces 3.2" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -631,6 +631,15 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="10" fontId="5" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="5" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="5" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="9" fontId="5" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
@@ -654,15 +663,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="5" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="5" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="5" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4283,100 +4283,100 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="4" customFormat="1" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="D1" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="20" t="s">
+      <c r="E1" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="20" t="s">
+      <c r="F1" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="20" t="s">
+      <c r="G1" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="20" t="s">
+      <c r="H1" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="I1" s="30" t="s">
+      <c r="I1" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="30" t="s">
+      <c r="J1" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="30" t="s">
+      <c r="K1" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="30" t="s">
+      <c r="L1" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="M1" s="30" t="s">
+      <c r="M1" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="N1" s="28" t="s">
+      <c r="N1" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="O1" s="28" t="s">
+      <c r="O1" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="P1" s="30" t="s">
+      <c r="P1" s="20" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:16" s="4" customFormat="1" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="23"/>
-      <c r="B2" s="26"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="30"/>
-      <c r="J2" s="30"/>
-      <c r="K2" s="30"/>
-      <c r="L2" s="30"/>
-      <c r="M2" s="30"/>
-      <c r="N2" s="29"/>
-      <c r="O2" s="29"/>
-      <c r="P2" s="30" t="s">
+      <c r="A2" s="26"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="20"/>
+      <c r="M2" s="20"/>
+      <c r="N2" s="22"/>
+      <c r="O2" s="22"/>
+      <c r="P2" s="20" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:16" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="24"/>
-      <c r="B3" s="27"/>
+      <c r="A3" s="27"/>
+      <c r="B3" s="30"/>
       <c r="C3" s="5">
-        <f>SUM(C4:C1072)</f>
+        <f t="shared" ref="C3:H3" si="0">SUM(C4:C1072)</f>
         <v>5</v>
       </c>
       <c r="D3" s="5">
-        <f>SUM(D4:D1072)</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="E3" s="5">
-        <f>SUM(E4:E1072)</f>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="F3" s="5">
-        <f>SUM(F4:F1072)</f>
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="G3" s="5">
-        <f>SUM(G4:G1072)</f>
+        <f t="shared" si="0"/>
         <v>26</v>
       </c>
       <c r="H3" s="5">
-        <f>SUM(H4:H1072)</f>
+        <f t="shared" si="0"/>
         <v>25</v>
       </c>
       <c r="I3" s="6" t="e">
@@ -4432,7 +4432,7 @@
       <c r="K4" s="7"/>
       <c r="L4" s="7"/>
       <c r="M4" s="8">
-        <f t="shared" ref="M4:M28" si="0">SUM(I4:L4)</f>
+        <f t="shared" ref="M4:M28" si="1">SUM(I4:L4)</f>
         <v>0</v>
       </c>
       <c r="N4" s="10" t="s">
@@ -4461,7 +4461,7 @@
       <c r="K5" s="7"/>
       <c r="L5" s="7"/>
       <c r="M5" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N5" s="10" t="s">
@@ -4490,7 +4490,7 @@
       <c r="K6" s="7"/>
       <c r="L6" s="7"/>
       <c r="M6" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N6" s="10" t="s">
@@ -4519,7 +4519,7 @@
       <c r="K7" s="12"/>
       <c r="L7" s="12"/>
       <c r="M7" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N7" s="10" t="s">
@@ -4548,7 +4548,7 @@
       <c r="K8" s="7"/>
       <c r="L8" s="7"/>
       <c r="M8" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N8" s="10" t="s">
@@ -4577,7 +4577,7 @@
       <c r="K9" s="7"/>
       <c r="L9" s="7"/>
       <c r="M9" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N9" s="10" t="s">
@@ -4606,7 +4606,7 @@
       <c r="K10" s="7"/>
       <c r="L10" s="7"/>
       <c r="M10" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N10" s="10"/>
@@ -4635,7 +4635,7 @@
       <c r="K11" s="12"/>
       <c r="L11" s="12"/>
       <c r="M11" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N11" s="10"/>
@@ -4664,7 +4664,7 @@
       <c r="K12" s="12"/>
       <c r="L12" s="12"/>
       <c r="M12" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N12" s="10" t="s">
@@ -4693,7 +4693,7 @@
       <c r="K13" s="7"/>
       <c r="L13" s="7"/>
       <c r="M13" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N13" s="10"/>
@@ -4722,7 +4722,7 @@
       <c r="K14" s="7"/>
       <c r="L14" s="7"/>
       <c r="M14" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N14" s="10"/>
@@ -4751,7 +4751,7 @@
       <c r="K15" s="7"/>
       <c r="L15" s="7"/>
       <c r="M15" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N15" s="10"/>
@@ -4780,7 +4780,7 @@
       <c r="K16" s="7"/>
       <c r="L16" s="7"/>
       <c r="M16" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N16" s="10" t="s">
@@ -4809,7 +4809,7 @@
       <c r="K17" s="7"/>
       <c r="L17" s="7"/>
       <c r="M17" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N17" s="10" t="s">
@@ -4838,7 +4838,7 @@
       <c r="K18" s="7"/>
       <c r="L18" s="7"/>
       <c r="M18" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N18" s="10" t="s">
@@ -4867,7 +4867,7 @@
       <c r="K19" s="7"/>
       <c r="L19" s="7"/>
       <c r="M19" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N19" s="10"/>
@@ -4896,7 +4896,7 @@
       <c r="K20" s="12"/>
       <c r="L20" s="12"/>
       <c r="M20" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N20" s="10" t="s">
@@ -4925,7 +4925,7 @@
       <c r="K21" s="7"/>
       <c r="L21" s="7"/>
       <c r="M21" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N21" s="10" t="s">
@@ -4954,7 +4954,7 @@
       <c r="K22" s="7"/>
       <c r="L22" s="7"/>
       <c r="M22" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N22" s="10"/>
@@ -4983,7 +4983,7 @@
       <c r="K23" s="7"/>
       <c r="L23" s="7"/>
       <c r="M23" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N23" s="10"/>
@@ -5012,7 +5012,7 @@
       <c r="K24" s="12"/>
       <c r="L24" s="12"/>
       <c r="M24" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N24" s="10"/>
@@ -5041,7 +5041,7 @@
       <c r="K25" s="7"/>
       <c r="L25" s="7"/>
       <c r="M25" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N25" s="10" t="s">
@@ -5070,7 +5070,7 @@
       <c r="K26" s="7"/>
       <c r="L26" s="7"/>
       <c r="M26" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N26" s="10" t="s">
@@ -5099,7 +5099,7 @@
       <c r="K27" s="12"/>
       <c r="L27" s="12"/>
       <c r="M27" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N27" s="10" t="s">
@@ -5128,7 +5128,7 @@
       <c r="K28" s="7"/>
       <c r="L28" s="7"/>
       <c r="M28" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N28" s="10"/>
@@ -5157,7 +5157,7 @@
       <c r="K29" s="7"/>
       <c r="L29" s="7"/>
       <c r="M29" s="8">
-        <f t="shared" ref="M29:M61" si="1">SUM(I29:L29)</f>
+        <f t="shared" ref="M29:M61" si="2">SUM(I29:L29)</f>
         <v>0</v>
       </c>
       <c r="N29" s="10"/>
@@ -5186,7 +5186,7 @@
       <c r="K30" s="7"/>
       <c r="L30" s="7"/>
       <c r="M30" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="N30" s="10" t="s">
@@ -5215,7 +5215,7 @@
       <c r="K31" s="7"/>
       <c r="L31" s="7"/>
       <c r="M31" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="N31" s="10"/>
@@ -5244,7 +5244,7 @@
       <c r="K32" s="7"/>
       <c r="L32" s="7"/>
       <c r="M32" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="N32" s="10" t="s">
@@ -5273,7 +5273,7 @@
       <c r="K33" s="7"/>
       <c r="L33" s="7"/>
       <c r="M33" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="N33" s="10" t="s">
@@ -5302,7 +5302,7 @@
       <c r="K34" s="12"/>
       <c r="L34" s="12"/>
       <c r="M34" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="N34" s="10" t="s">
@@ -5331,7 +5331,7 @@
       <c r="K35" s="12"/>
       <c r="L35" s="12"/>
       <c r="M35" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="N35" s="10"/>
@@ -5360,7 +5360,7 @@
       <c r="K36" s="7"/>
       <c r="L36" s="7"/>
       <c r="M36" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="N36" s="10"/>
@@ -5389,7 +5389,7 @@
       <c r="K37" s="7"/>
       <c r="L37" s="7"/>
       <c r="M37" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="N37" s="10" t="s">
@@ -5418,7 +5418,7 @@
       <c r="K38" s="12"/>
       <c r="L38" s="12"/>
       <c r="M38" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="N38" s="10" t="s">
@@ -5447,7 +5447,7 @@
       <c r="K39" s="12"/>
       <c r="L39" s="12"/>
       <c r="M39" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="N39" s="10" t="s">
@@ -5476,7 +5476,7 @@
       <c r="K40" s="7"/>
       <c r="L40" s="7"/>
       <c r="M40" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="N40" s="10"/>
@@ -5505,7 +5505,7 @@
       <c r="K41" s="12"/>
       <c r="L41" s="12"/>
       <c r="M41" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="N41" s="10" t="s">
@@ -5534,7 +5534,7 @@
       <c r="K42" s="7"/>
       <c r="L42" s="7"/>
       <c r="M42" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="N42" s="10"/>
@@ -5563,7 +5563,7 @@
       <c r="K43" s="12"/>
       <c r="L43" s="12"/>
       <c r="M43" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="N43" s="10" t="s">
@@ -5592,7 +5592,7 @@
       <c r="K44" s="12"/>
       <c r="L44" s="12"/>
       <c r="M44" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="N44" s="10" t="s">
@@ -5621,7 +5621,7 @@
       <c r="K45" s="12"/>
       <c r="L45" s="12"/>
       <c r="M45" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="N45" s="10" t="s">
@@ -5650,7 +5650,7 @@
       <c r="K46" s="7"/>
       <c r="L46" s="7"/>
       <c r="M46" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="N46" s="10" t="s">
@@ -5679,7 +5679,7 @@
       <c r="K47" s="12"/>
       <c r="L47" s="12"/>
       <c r="M47" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="N47" s="10"/>
@@ -5708,7 +5708,7 @@
       <c r="K48" s="12"/>
       <c r="L48" s="12"/>
       <c r="M48" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="N48" s="10"/>
@@ -5737,7 +5737,7 @@
       <c r="K49" s="7"/>
       <c r="L49" s="7"/>
       <c r="M49" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="N49" s="10" t="s">
@@ -5766,7 +5766,7 @@
       <c r="K50" s="12"/>
       <c r="L50" s="12"/>
       <c r="M50" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="N50" s="10" t="s">
@@ -5795,7 +5795,7 @@
       <c r="K51" s="12"/>
       <c r="L51" s="12"/>
       <c r="M51" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="N51" s="10" t="s">
@@ -5824,7 +5824,7 @@
       <c r="K52" s="12"/>
       <c r="L52" s="12"/>
       <c r="M52" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="N52" s="10" t="s">
@@ -5853,7 +5853,7 @@
       <c r="K53" s="7"/>
       <c r="L53" s="7"/>
       <c r="M53" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="N53" s="10"/>
@@ -5882,7 +5882,7 @@
       <c r="K54" s="12"/>
       <c r="L54" s="12"/>
       <c r="M54" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="N54" s="10"/>
@@ -5911,7 +5911,7 @@
       <c r="K55" s="12"/>
       <c r="L55" s="12"/>
       <c r="M55" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="N55" s="10"/>
@@ -5940,7 +5940,7 @@
       <c r="K56" s="12"/>
       <c r="L56" s="12"/>
       <c r="M56" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="N56" s="10"/>
@@ -5969,7 +5969,7 @@
       <c r="K57" s="12"/>
       <c r="L57" s="12"/>
       <c r="M57" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="N57" s="10" t="s">
@@ -5998,7 +5998,7 @@
       <c r="K58" s="12"/>
       <c r="L58" s="12"/>
       <c r="M58" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="N58" s="10" t="s">
@@ -6027,7 +6027,7 @@
       <c r="K59" s="7"/>
       <c r="L59" s="7"/>
       <c r="M59" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="N59" s="10"/>
@@ -6056,7 +6056,7 @@
       <c r="K60" s="12"/>
       <c r="L60" s="12"/>
       <c r="M60" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="N60" s="10"/>
@@ -6085,7 +6085,7 @@
       <c r="K61" s="7"/>
       <c r="L61" s="7"/>
       <c r="M61" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="N61" s="10"/>
@@ -6114,7 +6114,7 @@
       <c r="K62" s="12"/>
       <c r="L62" s="12"/>
       <c r="M62" s="8">
-        <f t="shared" ref="M62:M100" si="2">SUM(I62:L62)</f>
+        <f t="shared" ref="M62:M100" si="3">SUM(I62:L62)</f>
         <v>0</v>
       </c>
       <c r="N62" s="10"/>
@@ -6143,7 +6143,7 @@
       <c r="K63" s="12"/>
       <c r="L63" s="12"/>
       <c r="M63" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="N63" s="10"/>
@@ -6172,7 +6172,7 @@
       <c r="K64" s="7"/>
       <c r="L64" s="7"/>
       <c r="M64" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="N64" s="10" t="s">
@@ -6201,7 +6201,7 @@
       <c r="K65" s="12"/>
       <c r="L65" s="12"/>
       <c r="M65" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="N65" s="10" t="s">
@@ -6230,7 +6230,7 @@
       <c r="K66" s="12"/>
       <c r="L66" s="12"/>
       <c r="M66" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="N66" s="10"/>
@@ -6259,7 +6259,7 @@
       <c r="K67" s="12"/>
       <c r="L67" s="12"/>
       <c r="M67" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="N67" s="10"/>
@@ -6288,7 +6288,7 @@
       <c r="K68" s="12"/>
       <c r="L68" s="12"/>
       <c r="M68" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="N68" s="10" t="s">
@@ -6317,7 +6317,7 @@
       <c r="K69" s="12"/>
       <c r="L69" s="12"/>
       <c r="M69" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="N69" s="10" t="s">
@@ -6346,7 +6346,7 @@
       <c r="K70" s="7"/>
       <c r="L70" s="7"/>
       <c r="M70" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="N70" s="10" t="s">
@@ -6375,7 +6375,7 @@
       <c r="K71" s="7"/>
       <c r="L71" s="7"/>
       <c r="M71" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="N71" s="10"/>
@@ -6404,7 +6404,7 @@
       <c r="K72" s="12"/>
       <c r="L72" s="12"/>
       <c r="M72" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="N72" s="10" t="s">
@@ -6433,7 +6433,7 @@
       <c r="K73" s="12"/>
       <c r="L73" s="12"/>
       <c r="M73" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="N73" s="10"/>
@@ -6462,7 +6462,7 @@
       <c r="K74" s="7"/>
       <c r="L74" s="7"/>
       <c r="M74" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="N74" s="10" t="s">
@@ -6491,7 +6491,7 @@
       <c r="K75" s="12"/>
       <c r="L75" s="12"/>
       <c r="M75" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="N75" s="10"/>
@@ -6520,7 +6520,7 @@
       <c r="K76" s="12"/>
       <c r="L76" s="12"/>
       <c r="M76" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="N76" s="10"/>
@@ -6549,7 +6549,7 @@
       <c r="K77" s="12"/>
       <c r="L77" s="12"/>
       <c r="M77" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="N77" s="10" t="s">
@@ -6578,7 +6578,7 @@
       <c r="K78" s="12"/>
       <c r="L78" s="12"/>
       <c r="M78" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="N78" s="10" t="s">
@@ -6607,7 +6607,7 @@
       <c r="K79" s="12"/>
       <c r="L79" s="12"/>
       <c r="M79" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="N79" s="10" t="s">
@@ -6636,7 +6636,7 @@
       <c r="K80" s="7"/>
       <c r="L80" s="7"/>
       <c r="M80" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="N80" s="10"/>
@@ -6665,7 +6665,7 @@
       <c r="K81" s="12"/>
       <c r="L81" s="12"/>
       <c r="M81" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="N81" s="10"/>
@@ -6694,7 +6694,7 @@
       <c r="K82" s="12"/>
       <c r="L82" s="12"/>
       <c r="M82" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="N82" s="10"/>
@@ -6723,7 +6723,7 @@
       <c r="K83" s="12"/>
       <c r="L83" s="12"/>
       <c r="M83" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="N83" s="10" t="s">
@@ -6752,7 +6752,7 @@
       <c r="K84" s="12"/>
       <c r="L84" s="12"/>
       <c r="M84" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="N84" s="10" t="s">
@@ -6781,7 +6781,7 @@
       <c r="K85" s="12"/>
       <c r="L85" s="12"/>
       <c r="M85" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="N85" s="10" t="s">
@@ -6810,7 +6810,7 @@
       <c r="K86" s="12"/>
       <c r="L86" s="12"/>
       <c r="M86" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="N86" s="10" t="s">
@@ -6839,7 +6839,7 @@
       <c r="K87" s="12"/>
       <c r="L87" s="12"/>
       <c r="M87" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="N87" s="10" t="s">
@@ -6868,7 +6868,7 @@
       <c r="K88" s="12"/>
       <c r="L88" s="12"/>
       <c r="M88" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="N88" s="10"/>
@@ -6897,7 +6897,7 @@
       <c r="K89" s="12"/>
       <c r="L89" s="12"/>
       <c r="M89" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="N89" s="10" t="s">
@@ -6926,7 +6926,7 @@
       <c r="K90" s="12"/>
       <c r="L90" s="12"/>
       <c r="M90" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="N90" s="10"/>
@@ -6955,7 +6955,7 @@
       <c r="K91" s="12"/>
       <c r="L91" s="12"/>
       <c r="M91" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="N91" s="10"/>
@@ -6984,7 +6984,7 @@
       <c r="K92" s="12"/>
       <c r="L92" s="12"/>
       <c r="M92" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="N92" s="10"/>
@@ -7013,7 +7013,7 @@
       <c r="K93" s="12"/>
       <c r="L93" s="12"/>
       <c r="M93" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="N93" s="10" t="s">
@@ -7042,7 +7042,7 @@
       <c r="K94" s="12"/>
       <c r="L94" s="12"/>
       <c r="M94" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="N94" s="10"/>
@@ -7071,7 +7071,7 @@
       <c r="K95" s="12"/>
       <c r="L95" s="12"/>
       <c r="M95" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="N95" s="10"/>
@@ -7100,7 +7100,7 @@
       <c r="K96" s="7"/>
       <c r="L96" s="7"/>
       <c r="M96" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="N96" s="10" t="s">
@@ -7129,7 +7129,7 @@
       <c r="K97" s="7"/>
       <c r="L97" s="7"/>
       <c r="M97" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="N97" s="10" t="s">
@@ -7158,7 +7158,7 @@
       <c r="K98" s="12"/>
       <c r="L98" s="12"/>
       <c r="M98" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="N98" s="10"/>
@@ -7187,7 +7187,7 @@
       <c r="K99" s="7"/>
       <c r="L99" s="7"/>
       <c r="M99" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="N99" s="10"/>
@@ -7216,7 +7216,7 @@
       <c r="K100" s="12"/>
       <c r="L100" s="12"/>
       <c r="M100" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="N100" s="10" t="s">
@@ -7245,7 +7245,7 @@
       <c r="K101" s="7"/>
       <c r="L101" s="7"/>
       <c r="M101" s="8">
-        <f t="shared" ref="M101:M103" si="3">SUM(I101:L101)</f>
+        <f t="shared" ref="M101:M103" si="4">SUM(I101:L101)</f>
         <v>0</v>
       </c>
       <c r="N101" s="10" t="s">
@@ -7274,7 +7274,7 @@
       <c r="K102" s="12"/>
       <c r="L102" s="12"/>
       <c r="M102" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="N102" s="10" t="s">
@@ -7303,7 +7303,7 @@
       <c r="K103" s="7"/>
       <c r="L103" s="7"/>
       <c r="M103" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="N103" s="10"/>
@@ -10938,6 +10938,14 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:B3"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
     <mergeCell ref="J1:J2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="L1:L2"/>
@@ -10946,14 +10954,6 @@
     <mergeCell ref="N1:N2"/>
     <mergeCell ref="M1:M2"/>
     <mergeCell ref="K1:K2"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="H1:H2"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="B1:B3"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
   </mergeCells>
   <conditionalFormatting sqref="P7 P110:P118 N4:O17 N29:O46 B53:B76 A53:A75 N53:O103">
     <cfRule type="cellIs" dxfId="473" priority="854" operator="equal">
